--- a/Phenology_Over_Season_2020_Solace_I_P29.xlsx
+++ b/Phenology_Over_Season_2020_Solace_I_P29.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F8ABBF-E053-4DBC-9BC3-91C7A52BD15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEACF46-CA6E-4524-BD64-DE67B1B9E231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2390" yWindow="2200" windowWidth="19200" windowHeight="9460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-220" yWindow="680" windowWidth="19200" windowHeight="9460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -271,137 +271,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="ZoneTexte 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22199600" y="387350"/>
-          <a:ext cx="1403350" cy="2292350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Phenology</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> score:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>1 : 1 node</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>2: 2 nodes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>3: 3 nodes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>4: booting</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>5: heading</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>6: Start anthesis</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>7: Anthesis</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>8: Anthesis end</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -5957,6 +5826,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>